--- a/python/BurritoBoard/BurritoBoard.xlsx
+++ b/python/BurritoBoard/BurritoBoard.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="8120" yWindow="8580" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BurritoBoard.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>ideal</t>
-  </si>
-  <si>
     <t>Roger</t>
   </si>
   <si>
@@ -52,6 +49,18 @@
   </si>
   <si>
     <t>Larson</t>
+  </si>
+  <si>
+    <t>#all</t>
+  </si>
+  <si>
+    <t>#month</t>
+  </si>
+  <si>
+    <t>month_ideal</t>
+  </si>
+  <si>
+    <t>all_ideal</t>
   </si>
 </sst>
 </file>
@@ -100,17 +109,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -464,67 +497,59 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
         <f>B2+C2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <f>8+B2</f>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <f>7+C2</f>
+        <v>9</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">B3+C3</f>
-        <v>4</v>
+        <f>B3+C3</f>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f t="shared" ref="D5:D10" si="0">B5+C5</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -539,32 +564,169 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+      <c r="B12">
+        <f>5+B5</f>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>6+C5</f>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D17" si="1">B12+C12</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f>7+B6</f>
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <f>5+C6</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <f>2+B7</f>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f>3.5+C7</f>
+        <v>4.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <f>2+B8</f>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>4.5+C8</f>
+        <v>6.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <f>3+B9</f>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>7+C9</f>
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <f>7+B10</f>
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f>6+C10</f>
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
